--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 20211.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,75 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>DOLORES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CHULIN</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>LIZBETH</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>PERLA</t>
+  </si>
+  <si>
+    <t>ZURISADAI</t>
+  </si>
+  <si>
+    <t>DARLA MARLENE</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>CESAR SAID</t>
+  </si>
+  <si>
+    <t>IVANNA DANIELA</t>
   </si>
 </sst>
 </file>
@@ -857,7 +926,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -890,6 +959,190 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920358</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920327</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Morales Vallejo Jorge Luis - Estadisticos 20211.xlsx
+++ b/docentes/Morales Vallejo Jorge Luis - Estadisticos 20211.xlsx
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>72.73</v>
+        <v>74.42</v>
       </c>
       <c r="H5">
         <v>8.1</v>
@@ -758,10 +758,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>32</v>
@@ -901,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>72.73</v>
+        <v>74.42</v>
       </c>
       <c r="H5">
         <v>8.1</v>
